--- a/KPI_report.xlsx
+++ b/KPI_report.xlsx
@@ -610,7 +610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -718,35 +718,45 @@
       </c>
       <c r="M2" s="5" t="inlineStr">
         <is>
+          <t>B Charterer</t>
+        </is>
+      </c>
+      <c r="N2" s="5" t="inlineStr">
+        <is>
           <t>C MMS</t>
         </is>
       </c>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>D PSC</t>
         </is>
       </c>
-      <c r="O2" s="5" t="inlineStr">
+      <c r="P2" s="5" t="inlineStr">
+        <is>
+          <t>E Class</t>
+        </is>
+      </c>
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>F Vessel</t>
         </is>
       </c>
-      <c r="P2" s="5" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>G Other</t>
         </is>
       </c>
-      <c r="S2" s="5" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>vslCode</t>
         </is>
       </c>
-      <c r="T2" s="5" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>CLOSE</t>
         </is>
       </c>
-      <c r="U2" s="5" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>OPEN</t>
         </is>
@@ -755,66 +765,72 @@
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>CJA</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>22.6</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1</v>
+        <v>20.1</v>
       </c>
       <c r="K3" s="5" t="inlineStr">
         <is>
-          <t>CJA</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="O3" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="P3" t="n">
-        <v>8</v>
-      </c>
-      <c r="S3" s="5" t="inlineStr">
-        <is>
-          <t>CJA</t>
-        </is>
-      </c>
-      <c r="T3" t="n">
-        <v>6</v>
-      </c>
-      <c r="U3" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>54</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5" t="inlineStr">
+        <is>
+          <t>ADA</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>4</v>
+      </c>
+      <c r="W3" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>CPE</t>
+          <t>ASN</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -827,63 +843,69 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>17.3</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>17.3</v>
       </c>
       <c r="K4" s="5" t="inlineStr">
         <is>
-          <t>CPE</t>
+          <t>ASN</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" t="n">
         <v>3</v>
       </c>
-      <c r="O4" t="n">
-        <v>9</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5" t="inlineStr">
-        <is>
-          <t>CPE</t>
-        </is>
-      </c>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="U4" s="5" t="inlineStr">
+        <is>
+          <t>ASN</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>HBG</t>
+          <t>CJA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -892,106 +914,118 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>32</v>
+        <v>0.1</v>
       </c>
       <c r="K5" s="5" t="inlineStr">
         <is>
-          <t>HBG</t>
+          <t>CJA</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O5" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" s="5" t="inlineStr">
-        <is>
-          <t>HBG</t>
-        </is>
-      </c>
-      <c r="T5" t="n">
-        <v>4</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>13</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6</v>
+      </c>
+      <c r="U5" s="5" t="inlineStr">
+        <is>
+          <t>CJA</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>HHO</t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5.46</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>273.46</v>
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t>HHO</t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
-      <c r="S6" s="5" t="inlineStr">
-        <is>
-          <t>HHO</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>8</v>
+      <c r="Q6" t="n">
+        <v>16</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>HNG</t>
+          <t>CMI</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1001,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1017,40 +1051,46 @@
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>HNG</t>
+          <t>CMI</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>13</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" s="5" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
         <v>4</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>HNG</t>
-        </is>
-      </c>
-      <c r="T7" t="n">
-        <v>2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>3</v>
+      <c r="W7" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>HNO</t>
+          <t>CPE</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1066,231 +1106,255 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="5" t="inlineStr">
         <is>
-          <t>HNO</t>
+          <t>CPE</t>
         </is>
       </c>
       <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>27</v>
+      </c>
+      <c r="O8" t="n">
         <v>3</v>
       </c>
-      <c r="M8" t="n">
-        <v>6</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>17</v>
-      </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
-      <c r="S8" s="5" t="inlineStr">
-        <is>
-          <t>HNO</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="Q8" t="n">
         <v>8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>CPE</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>HSH</t>
+          <t>CPR</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K9" s="5" t="inlineStr">
         <is>
-          <t>HSH</t>
+          <t>CPR</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O9" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="5" t="inlineStr">
-        <is>
-          <t>HSH</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v>2</v>
-      </c>
-      <c r="U9" t="n">
-        <v>9</v>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>15</v>
+      </c>
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>CPR</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>HSZ</t>
+          <t>CSA</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>24</v>
+        <v>0.166</v>
       </c>
       <c r="K10" s="5" t="inlineStr">
         <is>
-          <t>HSZ</t>
+          <t>CSA</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" s="5" t="inlineStr">
-        <is>
-          <t>HSZ</t>
-        </is>
-      </c>
-      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>14</v>
+      </c>
+      <c r="R10" t="n">
         <v>5</v>
       </c>
-      <c r="U10" t="n">
-        <v>5</v>
+      <c r="U10" s="5" t="inlineStr">
+        <is>
+          <t>CSA</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>OCH</t>
+          <t>EDS</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>159.7</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>21</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>25</v>
       </c>
-      <c r="K11" s="5" t="inlineStr">
-        <is>
-          <t>OCH</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>18</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>11</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="5" t="inlineStr">
-        <is>
-          <t>OCH</t>
-        </is>
-      </c>
-      <c r="T11" t="n">
-        <v>2</v>
-      </c>
-      <c r="U11" t="n">
-        <v>4</v>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>OIN</t>
+          <t>EED</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1308,44 +1372,50 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>231</v>
+        <v>2.7</v>
       </c>
       <c r="K12" s="5" t="inlineStr">
         <is>
-          <t>OIN</t>
+          <t>EED</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>8</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="5" t="inlineStr">
-        <is>
-          <t>OIN</t>
-        </is>
-      </c>
-      <c r="T12" t="n">
-        <v>10</v>
-      </c>
-      <c r="U12" t="n">
-        <v>5</v>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5" t="inlineStr">
+        <is>
+          <t>EED</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>PVI</t>
+          <t>EEN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1361,103 +1431,1415 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>44.9</v>
+        <v>0</v>
       </c>
       <c r="K13" s="5" t="inlineStr">
         <is>
-          <t>PVI</t>
+          <t>EEN</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" s="5" t="inlineStr">
-        <is>
-          <t>PVI</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v>8</v>
-      </c>
-      <c r="U13" t="n">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>20</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5" t="inlineStr">
+        <is>
+          <t>EEN</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="inlineStr">
         <is>
+          <t>EHO</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>EHO</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5" t="inlineStr">
+        <is>
+          <t>EHO</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>ESN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>ESN</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>18</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>13</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" s="5" t="inlineStr">
+        <is>
+          <t>ESN</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>49</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>20</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" s="5" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>GKI</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>GKI</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>44</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="U17" s="5" t="inlineStr">
+        <is>
+          <t>GKI</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>35</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="5" t="inlineStr">
+        <is>
+          <t>GME</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>HBG</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>32</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>HBG</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>30</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>14</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="5" t="inlineStr">
+        <is>
+          <t>HBG</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
+        <v>4</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>HHO</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>HHO</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>44</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>20</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="5" t="inlineStr">
+        <is>
+          <t>HHO</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>HNG</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>HNG</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>14</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="5" t="inlineStr">
+        <is>
+          <t>HNG</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>HNO</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>HNO</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>13</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" s="5" t="inlineStr">
+        <is>
+          <t>HNO</t>
+        </is>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>HSH</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>300</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>HSH</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>21</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>18</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="5" t="inlineStr">
+        <is>
+          <t>HSH</t>
+        </is>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>HSZ</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>24</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>24</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>HSZ</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>16</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>22</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="5" t="inlineStr">
+        <is>
+          <t>HSZ</t>
+        </is>
+      </c>
+      <c r="V24" t="n">
+        <v>3</v>
+      </c>
+      <c r="W24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>OCH</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>25</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>OCH</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>17</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>8</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="5" t="inlineStr">
+        <is>
+          <t>OCH</t>
+        </is>
+      </c>
+      <c r="V25" t="n">
+        <v>2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>OIN</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>231</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>OIN</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>38</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>6</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" s="5" t="inlineStr">
+        <is>
+          <t>OIN</t>
+        </is>
+      </c>
+      <c r="V26" t="n">
+        <v>10</v>
+      </c>
+      <c r="W26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>PVI</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>PVI</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>93</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>20</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="5" t="inlineStr">
+        <is>
+          <t>PVI</t>
+        </is>
+      </c>
+      <c r="V27" t="n">
+        <v>2</v>
+      </c>
+      <c r="W27" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>SCL</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>SCL</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>32</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>29</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="5" t="inlineStr">
+        <is>
+          <t>SCL</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v>13</v>
+      </c>
+      <c r="W28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>SCR</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>SCR</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>8</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>17</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" s="5" t="inlineStr">
+        <is>
+          <t>SCR</t>
+        </is>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
           <t>SJA</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5" t="inlineStr">
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>SJA</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>11</v>
       </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>18</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="U30" s="5" t="inlineStr">
+        <is>
+          <t>SJA</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>2</v>
+      </c>
+      <c r="W30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>SKA</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>SKA</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>16</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>19</v>
+      </c>
+      <c r="R31" t="n">
         <v>21</v>
       </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" s="5" t="inlineStr">
-        <is>
-          <t>SJA</t>
-        </is>
-      </c>
-      <c r="T14" t="n">
-        <v>4</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="U31" s="5" t="inlineStr">
+        <is>
+          <t>SKA</t>
+        </is>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>SMD</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>SMD</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>17</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>12</v>
+      </c>
+      <c r="R32" t="n">
+        <v>13</v>
+      </c>
+      <c r="U32" s="5" t="inlineStr">
+        <is>
+          <t>SMD</t>
+        </is>
+      </c>
+      <c r="V32" t="n">
+        <v>2</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>SME</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>SME</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>6</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>12</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>15</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" s="5" t="inlineStr">
+        <is>
+          <t>SME</t>
+        </is>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>SPA</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>SPA</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7</v>
+      </c>
+      <c r="O34" t="n">
         <v>3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>8</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="U34" s="5" t="inlineStr">
+        <is>
+          <t>SPA</t>
+        </is>
+      </c>
+      <c r="V34" t="n">
+        <v>5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
